--- a/August'21/22.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/22.08.2021/Daily Sales Info August-2021.xlsx
@@ -37782,8 +37782,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
